--- a/Project Documentation/Milestone 5/QA Defect Report for Chatflix Discussions Feature.xlsx
+++ b/Project Documentation/Milestone 5/QA Defect Report for Chatflix Discussions Feature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verne\OneDrive\Documents\Software Engineering\Milestone 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC6167E-A13D-4446-A0A7-BC1039CE1A91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21E9632-5329-44BF-B268-8AC907D8E8C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{9B33482A-4AF6-4C9E-B312-7C8048F81774}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Please add a link to the Post page that would direct the user back to Threads page.</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>This spreadsheet will be used to track defect management for the Chatflix Discussions feature.</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Reviewed by</t>
   </si>
 </sst>
 </file>
@@ -501,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC7F9D1-656C-4098-8AB0-8DC6066C9B1D}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -513,9 +519,11 @@
     <col min="3" max="3" width="68.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" customWidth="1"/>
+    <col min="7" max="7" width="25.76953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -524,7 +532,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -540,8 +548,14 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -558,7 +572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -575,7 +589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -592,7 +606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -609,7 +623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -626,7 +640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="176.5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" ht="176.5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>12</v>
       </c>

--- a/Project Documentation/Milestone 5/QA Defect Report for Chatflix Discussions Feature.xlsx
+++ b/Project Documentation/Milestone 5/QA Defect Report for Chatflix Discussions Feature.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verne\OneDrive\Documents\Software Engineering\Milestone 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21E9632-5329-44BF-B268-8AC907D8E8C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35F8639-D93C-4922-8FA9-1487962C3665}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{9B33482A-4AF6-4C9E-B312-7C8048F81774}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>Please add a link to the Post page that would direct the user back to Threads page.</t>
   </si>
@@ -58,9 +61,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Open</t>
   </si>
   <si>
     <t>Detected by</t>
@@ -130,6 +130,39 @@
   <si>
     <t>Reviewed by</t>
   </si>
+  <si>
+    <t>Maksym</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Re-tested and passed. Closing defect. -VP</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Correction, only ' cause this error -MM
+Re-tested and passed. Closing defect. -VP</t>
+  </si>
+  <si>
+    <t>New thread posts are displayed as a post response.
+Steps to reproduce:
+Create a new Thread. 
+Add a Reply to the Thread.
+Create another new Thread.
+View newly created thread.
+The new thread appears as a Reply to the first Thread, e.g., the contents of the first thread are in the new thread.</t>
+  </si>
+  <si>
+    <t>changed url page generated to match naming convention -MM
+Post is displayed, but it is displayed as a response to an existing thread. New defect ID 7 created for this.  -VP</t>
+  </si>
+  <si>
+    <t>Never had this issue, pm if persists -MM
+Created new defect ID 7 with more detailed description and steps to reproduce. VP</t>
+  </si>
 </sst>
 </file>
 
@@ -158,7 +191,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +201,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,14 +229,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,157 +557,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC7F9D1-656C-4098-8AB0-8DC6066C9B1D}">
-  <dimension ref="A1:G8"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="20.58984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" customWidth="1"/>
-    <col min="7" max="7" width="25.76953125" customWidth="1"/>
+    <col min="6" max="6" width="21.1328125" customWidth="1"/>
+    <col min="7" max="7" width="47.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A2" s="2" t="s">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="73.75" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="59" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="176.5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="176.5" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:H9" xr:uid="{6BBEF5F1-83F6-41B7-A51B-1B2DB6EDF964}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Open"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
